--- a/ThesisCommunicationStatistics.xlsx
+++ b/ThesisCommunicationStatistics.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ac4c4365b8ae3532/ThesisVersion0_1_0/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="42" documentId="8_{94354B14-B49B-4BC3-BF89-C9C9DFECF701}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DA535849-55F9-4D8D-B2A8-C41B006184EE}"/>
+  <xr:revisionPtr revIDLastSave="105" documentId="8_{94354B14-B49B-4BC3-BF89-C9C9DFECF701}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0A1CE25C-69C4-40BA-9E30-4240B60FA850}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8E3C4BE5-7149-4752-870B-5A7C75A10B16}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>STT</t>
   </si>
@@ -44,10 +44,28 @@
     <t>Average</t>
   </si>
   <si>
-    <t>Total (ms)</t>
+    <t>ESP32 Total (ms)</t>
   </si>
   <si>
-    <t>Crypto (us)</t>
+    <t>ESP32 Crypto (us)</t>
+  </si>
+  <si>
+    <t>API Server Total (ms)</t>
+  </si>
+  <si>
+    <t>API Server Crypto (us)</t>
+  </si>
+  <si>
+    <t>ESP32 Total Average (ms)</t>
+  </si>
+  <si>
+    <t>ESP32 Crypto Average (ms)</t>
+  </si>
+  <si>
+    <t>API Server Crypto Average (ms)</t>
+  </si>
+  <si>
+    <t>API Server Total Average (ms)</t>
   </si>
 </sst>
 </file>
@@ -190,7 +208,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Total (ms)</c:v>
+                  <c:v>ESP32 Total (ms)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -318,7 +336,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Crypto (us)</c:v>
+                  <c:v>ESP32 Crypto (us)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -817,11 +835,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$1</c:f>
+              <c:f>Sheet1!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Total (ms)</c:v>
+                  <c:v>API Server Total (ms)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -838,7 +856,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$E$2:$E$12</c:f>
+              <c:f>Sheet1!$G$2:$G$12</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
@@ -879,7 +897,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$2:$F$12</c:f>
+              <c:f>Sheet1!$H$2:$H$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -946,11 +964,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$G$1</c:f>
+              <c:f>Sheet1!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Crypto (us)</c:v>
+                  <c:v>API Server Crypto (us)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -969,7 +987,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$E$2:$E$12</c:f>
+              <c:f>Sheet1!$G$2:$G$12</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
@@ -1010,7 +1028,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$2:$G$12</c:f>
+              <c:f>Sheet1!$I$2:$I$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1231,6 +1249,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="104611039"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -1275,6 +1294,1074 @@
           </a:p>
         </c:txPr>
       </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Statistics of 10 consecutive communications in ESP32 gateway and API server</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ESP32 Total (ms)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4EBE-4E1D-B8D1-CA31BBA1A301}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>API Server Total (ms)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$2:$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>14.707000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.058999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.561</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.473000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16.753</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.433999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14.457000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15.016999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16.873999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-4EBE-4E1D-B8D1-CA31BBA1A301}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:axId val="2139547999"/>
+        <c:axId val="151304431"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ESP32 Total Average (ms)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>66.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>66.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>66.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>66.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>66.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>66.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>66.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>66.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>66.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>66.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4EBE-4E1D-B8D1-CA31BBA1A301}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>API Server Total Average (ms)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$2:$J$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>15.538499999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.538499999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.538499999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.538499999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.538499999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.538499999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15.538499999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15.538499999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15.538499999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15.538499999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-4EBE-4E1D-B8D1-CA31BBA1A301}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2139547999"/>
+        <c:axId val="151304431"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ESP32 Crypto (us)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>156</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4EBE-4E1D-B8D1-CA31BBA1A301}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ESP32 Crypto Average (ms)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>168.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>168.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>168.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>168.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>168.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>168.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>168.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>168.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>168.3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>168.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-4EBE-4E1D-B8D1-CA31BBA1A301}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>API Server Crypto (us)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$2:$I$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>9.5129999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.061</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.6760000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.6679999999999993</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.628</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.452</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.055999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.6440000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.516</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.734</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-4EBE-4E1D-B8D1-CA31BBA1A301}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>API Server Crypto Average (ms)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$2:$K$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>9.9948000000000015</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.9948000000000015</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.9948000000000015</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.9948000000000015</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.9948000000000015</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.9948000000000015</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.9948000000000015</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.9948000000000015</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.9948000000000015</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.9948000000000015</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-4EBE-4E1D-B8D1-CA31BBA1A301}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="163855055"/>
+        <c:axId val="151318831"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2139547999"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="151304431"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="151304431"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Communication Total (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2139547999"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="151318831"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Cryptography (us)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="163855055"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="163855055"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="151318831"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1438,6 +2525,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -1942,6 +3069,509 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2513,6 +4143,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1002194</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>94421</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>885824</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5564B6C2-EB3A-0C5A-FAE0-B2B11F5CCD70}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2818,18 +4484,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B810C7AF-0BA2-4854-8D5A-69B159E30EB1}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J38" sqref="J38"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="29.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2839,17 +4513,29 @@
       <c r="C1" t="s">
         <v>3</v>
       </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
       <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" t="s">
-        <v>3</v>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2859,17 +4545,33 @@
       <c r="C2">
         <v>187</v>
       </c>
+      <c r="D2">
+        <f>AVERAGE($B$2:$B$11)</f>
+        <v>66.5</v>
+      </c>
       <c r="E2">
+        <f>AVERAGE($C$2:$C$11)</f>
+        <v>168.3</v>
+      </c>
+      <c r="G2">
         <v>1</v>
       </c>
-      <c r="F2">
+      <c r="H2">
         <v>14.707000000000001</v>
       </c>
-      <c r="G2">
+      <c r="I2">
         <v>9.5129999999999999</v>
       </c>
+      <c r="J2">
+        <f>AVERAGE($H$2:$H$11)</f>
+        <v>15.538499999999999</v>
+      </c>
+      <c r="K2">
+        <f>AVERAGE($I$2:$I$11)</f>
+        <v>9.9948000000000015</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2879,17 +4581,33 @@
       <c r="C3">
         <v>139</v>
       </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D11" si="0">AVERAGE($B$2:$B$11)</f>
+        <v>66.5</v>
+      </c>
       <c r="E3">
+        <f t="shared" ref="E3:E11" si="1">AVERAGE($C$2:$C$11)</f>
+        <v>168.3</v>
+      </c>
+      <c r="G3">
         <v>2</v>
       </c>
-      <c r="F3">
+      <c r="H3">
         <v>15.058999999999999</v>
       </c>
-      <c r="G3">
+      <c r="I3">
         <v>10.061</v>
       </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J11" si="2">AVERAGE($H$2:$H$11)</f>
+        <v>15.538499999999999</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K11" si="3">AVERAGE($I$2:$I$11)</f>
+        <v>9.9948000000000015</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2899,17 +4617,33 @@
       <c r="C4">
         <v>160</v>
       </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>66.5</v>
+      </c>
       <c r="E4">
+        <f t="shared" si="1"/>
+        <v>168.3</v>
+      </c>
+      <c r="G4">
         <v>3</v>
       </c>
-      <c r="F4">
+      <c r="H4">
         <v>13.561</v>
       </c>
-      <c r="G4">
+      <c r="I4">
         <v>9.6760000000000002</v>
       </c>
+      <c r="J4">
+        <f t="shared" si="2"/>
+        <v>15.538499999999999</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="3"/>
+        <v>9.9948000000000015</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2919,17 +4653,33 @@
       <c r="C5">
         <v>167</v>
       </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>66.5</v>
+      </c>
       <c r="E5">
+        <f t="shared" si="1"/>
+        <v>168.3</v>
+      </c>
+      <c r="G5">
         <v>4</v>
       </c>
-      <c r="F5">
+      <c r="H5">
         <v>14.473000000000001</v>
       </c>
-      <c r="G5">
+      <c r="I5">
         <v>9.6679999999999993</v>
       </c>
+      <c r="J5">
+        <f t="shared" si="2"/>
+        <v>15.538499999999999</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="3"/>
+        <v>9.9948000000000015</v>
+      </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2939,17 +4689,33 @@
       <c r="C6">
         <v>188</v>
       </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>66.5</v>
+      </c>
       <c r="E6">
+        <f t="shared" si="1"/>
+        <v>168.3</v>
+      </c>
+      <c r="G6">
         <v>5</v>
       </c>
-      <c r="F6">
+      <c r="H6">
         <v>20.05</v>
       </c>
-      <c r="G6">
+      <c r="I6">
         <v>12.628</v>
       </c>
+      <c r="J6">
+        <f t="shared" si="2"/>
+        <v>15.538499999999999</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="3"/>
+        <v>9.9948000000000015</v>
+      </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2959,17 +4725,33 @@
       <c r="C7">
         <v>156</v>
       </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>66.5</v>
+      </c>
       <c r="E7">
+        <f t="shared" si="1"/>
+        <v>168.3</v>
+      </c>
+      <c r="G7">
         <v>6</v>
       </c>
-      <c r="F7">
+      <c r="H7">
         <v>16.753</v>
       </c>
-      <c r="G7">
+      <c r="I7">
         <v>9.452</v>
       </c>
+      <c r="J7">
+        <f t="shared" si="2"/>
+        <v>15.538499999999999</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="3"/>
+        <v>9.9948000000000015</v>
+      </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2979,17 +4761,33 @@
       <c r="C8">
         <v>175</v>
       </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>66.5</v>
+      </c>
       <c r="E8">
+        <f t="shared" si="1"/>
+        <v>168.3</v>
+      </c>
+      <c r="G8">
         <v>7</v>
       </c>
-      <c r="F8">
+      <c r="H8">
         <v>14.433999999999999</v>
       </c>
-      <c r="G8">
+      <c r="I8">
         <v>10.055999999999999</v>
       </c>
+      <c r="J8">
+        <f t="shared" si="2"/>
+        <v>15.538499999999999</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="3"/>
+        <v>9.9948000000000015</v>
+      </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2999,17 +4797,33 @@
       <c r="C9">
         <v>187</v>
       </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>66.5</v>
+      </c>
       <c r="E9">
+        <f t="shared" si="1"/>
+        <v>168.3</v>
+      </c>
+      <c r="G9">
         <v>8</v>
       </c>
-      <c r="F9">
+      <c r="H9">
         <v>14.457000000000001</v>
       </c>
-      <c r="G9">
+      <c r="I9">
         <v>9.6440000000000001</v>
       </c>
+      <c r="J9">
+        <f t="shared" si="2"/>
+        <v>15.538499999999999</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="3"/>
+        <v>9.9948000000000015</v>
+      </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3019,17 +4833,33 @@
       <c r="C10">
         <v>168</v>
       </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>66.5</v>
+      </c>
       <c r="E10">
+        <f t="shared" si="1"/>
+        <v>168.3</v>
+      </c>
+      <c r="G10">
         <v>9</v>
       </c>
-      <c r="F10">
+      <c r="H10">
         <v>15.016999999999999</v>
       </c>
-      <c r="G10">
+      <c r="I10">
         <v>9.516</v>
       </c>
+      <c r="J10">
+        <f t="shared" si="2"/>
+        <v>15.538499999999999</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="3"/>
+        <v>9.9948000000000015</v>
+      </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3039,17 +4869,33 @@
       <c r="C11">
         <v>156</v>
       </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>66.5</v>
+      </c>
       <c r="E11">
+        <f t="shared" si="1"/>
+        <v>168.3</v>
+      </c>
+      <c r="G11">
         <v>10</v>
       </c>
-      <c r="F11">
+      <c r="H11">
         <v>16.873999999999999</v>
       </c>
-      <c r="G11">
+      <c r="I11">
         <v>9.734</v>
       </c>
+      <c r="J11">
+        <f t="shared" si="2"/>
+        <v>15.538499999999999</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="3"/>
+        <v>9.9948000000000015</v>
+      </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -3061,15 +4907,15 @@
         <f>AVERAGE(C2:C11)</f>
         <v>168.3</v>
       </c>
-      <c r="E12" t="s">
+      <c r="G12" t="s">
         <v>1</v>
       </c>
-      <c r="F12">
-        <f>AVERAGE(F2:F11)</f>
+      <c r="H12">
+        <f>AVERAGE(H2:H11)</f>
         <v>15.538499999999999</v>
       </c>
-      <c r="G12">
-        <f>AVERAGE(G2:G11)</f>
+      <c r="I12">
+        <f>AVERAGE(I2:I11)</f>
         <v>9.9948000000000015</v>
       </c>
     </row>
